--- a/Calibration/Testing/Testing_Allison_et_al_2019.xlsx
+++ b/Calibration/Testing/Testing_Allison_et_al_2019.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\OneDrive - University of Cambridge\!!!!!!PHD\Fissure8_MI_Work\MagmaSat\Testing_Compiled_FinalOnes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C00DAAE-214F-41D1-9411-0343318C36EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411CE567-C550-42E8-B3A9-A05657E13240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{286DCE04-AB12-484B-880B-42B53AAF1A46}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{286DCE04-AB12-484B-880B-42B53AAF1A46}"/>
   </bookViews>
   <sheets>
     <sheet name="SunsetCrater_2000ppm" sheetId="4" r:id="rId1"/>
     <sheet name="SunsetCrater_500ppm" sheetId="3" r:id="rId2"/>
-    <sheet name="NanHunting" sheetId="10" r:id="rId3"/>
-    <sheet name="SunsetCrater_5000ppm" sheetId="5" r:id="rId4"/>
-    <sheet name="SunsetCrater_VariableCarbon_0W" sheetId="8" r:id="rId5"/>
+    <sheet name="SunsetCrater_5000ppm" sheetId="5" r:id="rId3"/>
+    <sheet name="SunsetCrater_VariableCarbon_0W" sheetId="8" r:id="rId4"/>
+    <sheet name="Diff_Models_VariableCarbon_0W" sheetId="11" r:id="rId5"/>
     <sheet name="SunsetCrater_VariableCarbon_3W" sheetId="9" r:id="rId6"/>
     <sheet name="SFVF" sheetId="2" r:id="rId7"/>
     <sheet name="Isobar_4000bar_SunsetCrater" sheetId="6" r:id="rId8"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="31">
   <si>
     <t>SiO2</t>
   </si>
@@ -120,6 +120,21 @@
   <si>
     <t>CO2ppm</t>
   </si>
+  <si>
+    <t>Erebus</t>
+  </si>
+  <si>
+    <t>Vesuvius</t>
+  </si>
+  <si>
+    <t>Etna</t>
+  </si>
+  <si>
+    <t>Stromboli</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
 </sst>
 </file>
 
@@ -148,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -174,12 +189,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -201,6 +227,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2209,187 +2240,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F423C7-B16F-4D73-A8A0-2998568B1DA8}">
-  <dimension ref="A1:S7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.8984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
-        <v>48.21</v>
-      </c>
-      <c r="C2">
-        <v>1.86</v>
-      </c>
-      <c r="D2">
-        <v>16.440000000000001</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>9.92</v>
-      </c>
-      <c r="H2">
-        <v>0.18</v>
-      </c>
-      <c r="I2">
-        <v>8.58</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>10.06</v>
-      </c>
-      <c r="M2">
-        <v>3.46</v>
-      </c>
-      <c r="N2">
-        <v>0.82</v>
-      </c>
-      <c r="O2">
-        <v>0.47</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="R2" s="2">
-        <v>799</v>
-      </c>
-      <c r="S2">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A750C7C4-DEC6-4F6B-8B08-627A73E850BD}">
   <dimension ref="A1:S14"/>
   <sheetViews>
@@ -3236,12 +3086,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B77BFD-EA21-42BF-A744-6D591B5D772C}">
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD15"/>
+      <selection activeCell="S1" sqref="A1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3753,6 +3603,1211 @@
       </c>
       <c r="T8" s="3">
         <v>4000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA56545-AF45-4B22-BA7D-E66E44537550}">
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7">
+        <v>48.21</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1.86</v>
+      </c>
+      <c r="D2" s="7">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>9.92</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="I2" s="7">
+        <v>8.58</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>10.06</v>
+      </c>
+      <c r="M2" s="7">
+        <v>3.46</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>100/10^4</f>
+        <v>0.01</v>
+      </c>
+      <c r="R2" s="2">
+        <v>168</v>
+      </c>
+      <c r="S2">
+        <v>1200</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7">
+        <v>48.21</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1.86</v>
+      </c>
+      <c r="D3" s="7">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>9.92</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="I3" s="7">
+        <v>8.58</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>10.06</v>
+      </c>
+      <c r="M3" s="7">
+        <v>3.46</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>5000/10^4</f>
+        <v>0.5</v>
+      </c>
+      <c r="R3" s="2">
+        <v>5121</v>
+      </c>
+      <c r="S3">
+        <v>1201</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4">
+        <v>48.21</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.86</v>
+      </c>
+      <c r="D4" s="4">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>9.92</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="I4" s="4">
+        <v>8.58</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>10.06</v>
+      </c>
+      <c r="M4" s="4">
+        <v>3.46</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="R4" s="9">
+        <v>6881</v>
+      </c>
+      <c r="S4" s="4">
+        <v>1202</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>53.3</v>
+      </c>
+      <c r="C5">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D5">
+        <v>16.75</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7.58</v>
+      </c>
+      <c r="H5">
+        <v>0.17</v>
+      </c>
+      <c r="I5">
+        <v>6.42</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>9.32</v>
+      </c>
+      <c r="M5">
+        <v>3.22</v>
+      </c>
+      <c r="N5">
+        <v>1.35</v>
+      </c>
+      <c r="O5">
+        <v>0.74</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>100/10^4</f>
+        <v>0.01</v>
+      </c>
+      <c r="R5" s="2">
+        <v>207</v>
+      </c>
+      <c r="S5">
+        <v>1200</v>
+      </c>
+      <c r="T5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>53.3</v>
+      </c>
+      <c r="C6">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D6">
+        <v>16.75</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>7.58</v>
+      </c>
+      <c r="H6">
+        <v>0.17</v>
+      </c>
+      <c r="I6">
+        <v>6.42</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>9.32</v>
+      </c>
+      <c r="M6">
+        <v>3.22</v>
+      </c>
+      <c r="N6">
+        <v>1.35</v>
+      </c>
+      <c r="O6">
+        <v>0.74</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>5000/10^4</f>
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="2">
+        <v>5627</v>
+      </c>
+      <c r="S6">
+        <v>1200</v>
+      </c>
+      <c r="T6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4">
+        <v>53.3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D7" s="4">
+        <v>16.75</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>7.58</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="I7" s="4">
+        <v>6.42</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>9.32</v>
+      </c>
+      <c r="M7" s="4">
+        <v>3.22</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="R7" s="9">
+        <v>6881</v>
+      </c>
+      <c r="S7" s="4">
+        <v>1200</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>48.38</v>
+      </c>
+      <c r="C8">
+        <v>2.81</v>
+      </c>
+      <c r="D8">
+        <v>19.27</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>8.92</v>
+      </c>
+      <c r="H8">
+        <v>0.25</v>
+      </c>
+      <c r="I8">
+        <v>3.19</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>6.93</v>
+      </c>
+      <c r="M8">
+        <v>6.16</v>
+      </c>
+      <c r="N8">
+        <v>2.89</v>
+      </c>
+      <c r="O8">
+        <v>1.19</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>100/10^4</f>
+        <v>0.01</v>
+      </c>
+      <c r="R8">
+        <v>166</v>
+      </c>
+      <c r="S8">
+        <v>1200</v>
+      </c>
+      <c r="T8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>48.38</v>
+      </c>
+      <c r="C9">
+        <v>2.81</v>
+      </c>
+      <c r="D9">
+        <v>19.27</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>8.92</v>
+      </c>
+      <c r="H9">
+        <v>0.25</v>
+      </c>
+      <c r="I9">
+        <v>3.19</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>6.93</v>
+      </c>
+      <c r="M9">
+        <v>6.16</v>
+      </c>
+      <c r="N9">
+        <v>2.89</v>
+      </c>
+      <c r="O9">
+        <v>1.19</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>5000/10^4</f>
+        <v>0.5</v>
+      </c>
+      <c r="R9">
+        <v>4995</v>
+      </c>
+      <c r="S9">
+        <v>1200</v>
+      </c>
+      <c r="T9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4">
+        <v>48.38</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2.81</v>
+      </c>
+      <c r="D10" s="4">
+        <v>19.27</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>8.92</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3.19</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>6.93</v>
+      </c>
+      <c r="M10" s="4">
+        <v>6.16</v>
+      </c>
+      <c r="N10" s="4">
+        <v>2.89</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1.19</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="R10" s="4">
+        <v>6687</v>
+      </c>
+      <c r="S10" s="4">
+        <v>1200</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>49.2</v>
+      </c>
+      <c r="C11">
+        <v>0.98</v>
+      </c>
+      <c r="D11">
+        <v>15.5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>7.01</v>
+      </c>
+      <c r="H11">
+        <v>0.22</v>
+      </c>
+      <c r="I11">
+        <v>6.79</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>11.77</v>
+      </c>
+      <c r="M11">
+        <v>1.94</v>
+      </c>
+      <c r="N11">
+        <v>5.93</v>
+      </c>
+      <c r="O11">
+        <v>0.64</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>100/10^4</f>
+        <v>0.01</v>
+      </c>
+      <c r="R11">
+        <v>85</v>
+      </c>
+      <c r="S11">
+        <v>1200</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>49.2</v>
+      </c>
+      <c r="C12">
+        <v>0.98</v>
+      </c>
+      <c r="D12">
+        <v>15.5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>7.01</v>
+      </c>
+      <c r="H12">
+        <v>0.22</v>
+      </c>
+      <c r="I12">
+        <v>6.79</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>11.77</v>
+      </c>
+      <c r="M12">
+        <v>1.94</v>
+      </c>
+      <c r="N12">
+        <v>5.93</v>
+      </c>
+      <c r="O12">
+        <v>0.64</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <f>5000/10^4</f>
+        <v>0.5</v>
+      </c>
+      <c r="R12">
+        <v>3814</v>
+      </c>
+      <c r="S12">
+        <v>1200</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4">
+        <v>49.2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="D13" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>7.01</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="I13" s="4">
+        <v>6.79</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>11.77</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="N13" s="4">
+        <v>5.93</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="R13" s="4">
+        <v>5606</v>
+      </c>
+      <c r="S13" s="4">
+        <v>1200</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>48.77</v>
+      </c>
+      <c r="C14">
+        <v>1.79</v>
+      </c>
+      <c r="D14">
+        <v>16.98</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H14">
+        <v>0.18</v>
+      </c>
+      <c r="I14">
+        <v>6.33</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>11.26</v>
+      </c>
+      <c r="M14">
+        <v>3.65</v>
+      </c>
+      <c r="N14">
+        <v>1.79</v>
+      </c>
+      <c r="O14">
+        <v>0.53</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>100/10^4</f>
+        <v>0.01</v>
+      </c>
+      <c r="R14">
+        <v>110</v>
+      </c>
+      <c r="S14">
+        <v>1200</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>48.77</v>
+      </c>
+      <c r="C15">
+        <v>1.79</v>
+      </c>
+      <c r="D15">
+        <v>16.98</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H15">
+        <v>0.18</v>
+      </c>
+      <c r="I15">
+        <v>6.33</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>11.26</v>
+      </c>
+      <c r="M15">
+        <v>3.65</v>
+      </c>
+      <c r="N15">
+        <v>1.79</v>
+      </c>
+      <c r="O15">
+        <v>0.53</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>5000/10^4</f>
+        <v>0.5</v>
+      </c>
+      <c r="R15">
+        <v>4361</v>
+      </c>
+      <c r="S15">
+        <v>1200</v>
+      </c>
+      <c r="T15" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4">
+        <v>48.77</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1.79</v>
+      </c>
+      <c r="D16" s="4">
+        <v>16.98</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="I16" s="4">
+        <v>6.33</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>11.26</v>
+      </c>
+      <c r="M16" s="4">
+        <v>3.65</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1.79</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="R16" s="4">
+        <v>6194</v>
+      </c>
+      <c r="S16" s="4">
+        <v>1200</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>50.03</v>
+      </c>
+      <c r="C17">
+        <v>0.82</v>
+      </c>
+      <c r="D17">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>6.56</v>
+      </c>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>12.74</v>
+      </c>
+      <c r="M17">
+        <v>2.46</v>
+      </c>
+      <c r="N17">
+        <v>1.99</v>
+      </c>
+      <c r="O17">
+        <v>0.41</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>100/10^4</f>
+        <v>0.01</v>
+      </c>
+      <c r="R17">
+        <v>172</v>
+      </c>
+      <c r="S17">
+        <v>1200</v>
+      </c>
+      <c r="T17" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>50.03</v>
+      </c>
+      <c r="C18">
+        <v>0.82</v>
+      </c>
+      <c r="D18">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>6.56</v>
+      </c>
+      <c r="H18">
+        <v>0.2</v>
+      </c>
+      <c r="I18">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>12.74</v>
+      </c>
+      <c r="M18">
+        <v>2.46</v>
+      </c>
+      <c r="N18">
+        <v>1.99</v>
+      </c>
+      <c r="O18">
+        <v>0.41</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <f>5000/10^4</f>
+        <v>0.5</v>
+      </c>
+      <c r="R18">
+        <v>4997</v>
+      </c>
+      <c r="S18">
+        <v>1200</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>50.03</v>
+      </c>
+      <c r="C19">
+        <v>0.82</v>
+      </c>
+      <c r="D19">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>6.56</v>
+      </c>
+      <c r="H19">
+        <v>0.2</v>
+      </c>
+      <c r="I19">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>12.74</v>
+      </c>
+      <c r="M19">
+        <v>2.46</v>
+      </c>
+      <c r="N19">
+        <v>1.99</v>
+      </c>
+      <c r="O19">
+        <v>0.41</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="R19">
+        <v>6641</v>
+      </c>
+      <c r="S19" s="4">
+        <v>1200</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -4289,7 +5344,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection sqref="A1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
